--- a/contacts.xlsx
+++ b/contacts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PyWhatsApp\pywhatsapp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\LEAP\PyWhatsApp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDE3994-56BD-4F09-ABF1-D83C6757BEBE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66F4A2A3-F3EF-4004-807E-140D82179562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="348" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>Phew</t>
+    <t>MyRepublic Indonesia</t>
   </si>
 </sst>
 </file>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -362,16 +362,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>912348280634</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>1234567890</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
